--- a/mxquote/quotes/reference_excel.xlsx
+++ b/mxquote/quotes/reference_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jomih/Documents/20.Juniper/100.Scripts/quote-web/SBQuote/mxquote/quotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E1C87-FD0C-3641-8175-3D9C34522C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89992DD3-A126-9244-B4BB-086A3BDF48B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15540" xr2:uid="{7AA81A21-4CBB-0C4D-BFA1-65831F1DBFE7}"/>
+    <workbookView xWindow="7500" yWindow="1760" windowWidth="26840" windowHeight="15540" xr2:uid="{7AA81A21-4CBB-0C4D-BFA1-65831F1DBFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="HW List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>MPC7E-MRATE-RB</t>
   </si>
@@ -48,12 +48,6 @@
     <t>12 x QSFP+/QSFP28 multirate port line card bundle, price includes full scale L3, L2 and L2.5 features.4 ports out of 12 support QSFP28.Optics sold separately.</t>
   </si>
   <si>
-    <t>Per slot license to support 32K total queues on MPC7E. Applicable to MPC7E-MRATE, MPC7E-10G; MPC7E-MRATE-IRB, MPC7E-10G-IRB; MPC7E-MRATE-RB, MPC7E-10G-RB.</t>
-  </si>
-  <si>
-    <t>100GBASE-LR4 QSFP28 pluggable module, support only Ethernet rate</t>
-  </si>
-  <si>
     <t>MPC3E-3D-NG-Q-R-B</t>
   </si>
   <si>
@@ -112,6 +106,153 @@
   </si>
   <si>
     <t>Chassis based software license for inline Jflow monitoring on MX480 chassis</t>
+  </si>
+  <si>
+    <t>S-JFLOW-MX480</t>
+  </si>
+  <si>
+    <t>License inline Jflow monitoring on MX480</t>
+  </si>
+  <si>
+    <t>S-JFLOW-MX104</t>
+  </si>
+  <si>
+    <t>License inline Jflow monitoring on MX104</t>
+  </si>
+  <si>
+    <t>S-JFLOW-MX960</t>
+  </si>
+  <si>
+    <t>License inline Jflow monitoring on MX960</t>
+  </si>
+  <si>
+    <t>S-MPC-3D-PVQ</t>
+  </si>
+  <si>
+    <t>Per-vlan-queuing on non-Q MPCs</t>
+  </si>
+  <si>
+    <t>License to support 32K queues on MPC7E</t>
+  </si>
+  <si>
+    <t>S-MX104-ADD</t>
+  </si>
+  <si>
+    <t>Upgrade license to activate 2x10GE P2&amp;3</t>
+  </si>
+  <si>
+    <t>S-MX104-ADV</t>
+  </si>
+  <si>
+    <t>L3 license -Full scale</t>
+  </si>
+  <si>
+    <t>S-MX104-Q</t>
+  </si>
+  <si>
+    <t>License per VLAN Queuing MX104</t>
+  </si>
+  <si>
+    <t>S-MX104-UPG2</t>
+  </si>
+  <si>
+    <t>License Activate 2x10GE Ports MX104</t>
+  </si>
+  <si>
+    <t>S-MX104-UPG4</t>
+  </si>
+  <si>
+    <t>License Activate 4x10GE Ports MX104</t>
+  </si>
+  <si>
+    <t>S-NAT-NPU</t>
+  </si>
+  <si>
+    <t>Software license for NAT on one NPU</t>
+  </si>
+  <si>
+    <t>MIC-3D-2XGE-XFP</t>
+  </si>
+  <si>
+    <t>2x10G MIC for MX, requires optics sold separately</t>
+  </si>
+  <si>
+    <t>MS-MIC-16G</t>
+  </si>
+  <si>
+    <t>Multiservice Services MIC, 16G of Memory. Requires JunOs 13.2 or higher</t>
+  </si>
+  <si>
+    <t>MS-MPC-128G-R</t>
+  </si>
+  <si>
+    <t>MX Services Interface Card, 128G, Configured extra</t>
+  </si>
+  <si>
+    <t>MPC3E-3D-NG-R-B</t>
+  </si>
+  <si>
+    <t>Next-Gen MPC3E,Port Queue,Full Scale,MX</t>
+  </si>
+  <si>
+    <t>MX960-PREMIUM3-DC</t>
+  </si>
+  <si>
+    <t>MX960 Premium Bundle with redundant components, DC Power</t>
+  </si>
+  <si>
+    <t>MX104-PREM-DC-BNDL</t>
+  </si>
+  <si>
+    <t>MX104 premium, redundant PS and RE + 4 MIC slots+JUNOS</t>
+  </si>
+  <si>
+    <t>SFP-1GE-SX</t>
+  </si>
+  <si>
+    <t>SFPP-10GE-ER</t>
+  </si>
+  <si>
+    <t>SFPP-10GE-SR</t>
+  </si>
+  <si>
+    <t>XFP-10GE-LR</t>
+  </si>
+  <si>
+    <t>QSFPP-4X10GE-LR</t>
+  </si>
+  <si>
+    <t>QSFPP-4X10GE-SR</t>
+  </si>
+  <si>
+    <t>QSFPP-40GBASE-LR4</t>
+  </si>
+  <si>
+    <t>QSFP-100GBASE-SR4</t>
+  </si>
+  <si>
+    <t>100GBASE-SR4 QSFP28 pluggable module</t>
+  </si>
+  <si>
+    <t>One 40GBASE-LR4 QFP+ pluggable module</t>
+  </si>
+  <si>
+    <t>QSFP+ 4X10GBASE SR ETHERNET MODULE</t>
+  </si>
+  <si>
+    <t>QSFP+ 4x10GBASE LR Ethernet module</t>
+  </si>
+  <si>
+    <t>10GE XFP - 10KM SINGLEMODE</t>
+  </si>
+  <si>
+    <t>Small FF Pluggable 1000Base-LX GE</t>
+  </si>
+  <si>
+    <t>SFP+ 10GE 850nm for 300m transmission</t>
+  </si>
+  <si>
+    <t>GE SFP SX PLUG IN</t>
   </si>
 </sst>
 </file>
@@ -152,12 +293,54 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,19 +355,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816DD4E8-1C28-C041-8D1A-48F8B5C77543}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,157 +709,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="16">
+        <v>7790.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="16">
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="16">
+        <v>9935.2000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1">
-        <v>107000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="C5" s="14">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10824.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12">
+        <v>8670.7199999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="10">
+        <v>993.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2113.4899999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="8">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="8">
+        <v>71.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="8">
+        <v>270.95999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="8">
+        <v>270.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="8">
+        <v>405.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8">
+        <v>433.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="8">
+        <v>302.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="8">
+        <v>830.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>345000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="C25" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2167.6799999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1264.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3251.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4335.3599999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2">
-        <v>80000</v>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4335.3599999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1354.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1445.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <v>722.56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1354.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1300.6099999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1354.8</v>
       </c>
     </row>
   </sheetData>
